--- a/25th Feb Batch/Chi Square Test.xlsx
+++ b/25th Feb Batch/Chi Square Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2972C15D-3612-4E84-A6D1-FFAD9AE3F4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79096C12-67AF-4CE3-ABAD-F1F7F120DB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -241,6 +242,57 @@
   </si>
   <si>
     <t>Rejecting Null Hypothesis</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>ilpd</t>
+  </si>
+  <si>
+    <t>&gt;45</t>
+  </si>
+  <si>
+    <t>and logic</t>
+  </si>
+  <si>
+    <t>or logic</t>
   </si>
 </sst>
 </file>
@@ -264,12 +316,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -312,22 +376,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,36 +396,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -669,1080 +726,1123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H13" s="4"/>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13">
+      <c r="I16" s="10"/>
+      <c r="J16" s="4">
         <v>18</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <v>36</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <v>21</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>9</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>6</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="4">
         <f>SUM(J16:N16)</f>
         <v>90</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D17">
         <f>(90*39)/300</f>
         <v>11.7</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="7">
+      <c r="I17" s="10"/>
+      <c r="J17" s="4">
         <v>12</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>36</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>45</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>21</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>36</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="4">
         <f t="shared" ref="O17:O19" si="0">SUM(J17:N17)</f>
         <v>150</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7">
+      <c r="I18" s="10"/>
+      <c r="J18" s="4">
         <v>6</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <v>9</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>9</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>3</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="4">
         <v>3</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7">
+      <c r="I19" s="10"/>
+      <c r="J19" s="4">
         <v>3</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <v>9</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>9</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="4">
         <v>3</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7">
+      <c r="I20" s="10"/>
+      <c r="J20" s="4">
         <f>SUM(J16:J19)</f>
         <v>39</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <f t="shared" ref="K20:O20" si="1">SUM(K16:K19)</f>
         <v>90</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="4">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G24" s="3"/>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="6"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G25" s="3"/>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="7">
+      <c r="I25" s="10"/>
+      <c r="J25" s="4">
         <v>11.7</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <v>27</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>25.2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>11.7</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>14.4</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="6"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G26" s="3"/>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="7">
+      <c r="I26" s="10"/>
+      <c r="J26" s="4">
         <v>19.5</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <v>45</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="4">
         <v>42</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <v>19.5</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="4">
         <v>24</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="6"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G27" s="3"/>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="7">
+      <c r="I27" s="10"/>
+      <c r="J27" s="4">
         <v>3.9</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="4">
         <v>9</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="4">
         <v>8.4</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <v>3.9</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="4">
         <v>4.8</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="6"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G28" s="3"/>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="7">
+      <c r="I28" s="10"/>
+      <c r="J28" s="4">
         <v>3.9</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="4">
         <v>9</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="4">
         <v>8.4</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="4">
         <v>3.9</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="4">
         <v>4.8</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="6"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="G29" s="3"/>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="6"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="33" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="3" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="2" t="s">
+      <c r="M33" s="9"/>
+      <c r="N33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="2" t="s">
+      <c r="M34" s="9"/>
+      <c r="N34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="16" t="s">
+      <c r="O34" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="3">
         <v>18</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <v>11.7</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="9">
         <f>J35-K35</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="2">
+      <c r="M35" s="9"/>
+      <c r="N35" s="1">
         <f>L35^2</f>
         <v>39.690000000000012</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="7">
         <f>N35/K35</f>
         <v>3.3923076923076936</v>
       </c>
     </row>
     <row r="36" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="3">
         <v>36</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <v>27</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="9">
         <f t="shared" ref="L36:L54" si="2">J36-K36</f>
         <v>9</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="2">
+      <c r="M36" s="9"/>
+      <c r="N36" s="1">
         <f t="shared" ref="N36:N54" si="3">L36^2</f>
         <v>81</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="7">
         <f t="shared" ref="O36:O54" si="4">N36/K36</f>
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="3">
         <v>21</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <v>25.2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="9">
         <f t="shared" si="2"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="2">
+      <c r="M37" s="9"/>
+      <c r="N37" s="1">
         <f t="shared" si="3"/>
         <v>17.639999999999993</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="7">
         <f t="shared" si="4"/>
         <v>0.69999999999999973</v>
       </c>
     </row>
     <row r="38" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="3">
         <v>9</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <v>11.7</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="9">
         <f t="shared" si="2"/>
         <v>-2.6999999999999993</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="2">
+      <c r="M38" s="9"/>
+      <c r="N38" s="1">
         <f t="shared" si="3"/>
         <v>7.2899999999999965</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="7">
         <f t="shared" si="4"/>
         <v>0.62307692307692286</v>
       </c>
     </row>
     <row r="39" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="3">
         <v>6</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <v>14.4</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="9">
         <f t="shared" si="2"/>
         <v>-8.4</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="2">
+      <c r="M39" s="9"/>
+      <c r="N39" s="1">
         <f t="shared" si="3"/>
         <v>70.56</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="7">
         <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="40" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="3">
         <v>12</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <v>19.5</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="9">
         <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="2">
+      <c r="M40" s="9"/>
+      <c r="N40" s="1">
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="7">
         <f t="shared" si="4"/>
         <v>2.8846153846153846</v>
       </c>
     </row>
     <row r="41" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="3">
         <v>36</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="3">
         <v>45</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="9">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="2">
+      <c r="M41" s="9"/>
+      <c r="N41" s="1">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="7">
         <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="42" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="3">
         <v>45</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="3">
         <v>42</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="2">
+      <c r="M42" s="9"/>
+      <c r="N42" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="7">
         <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="43" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="3">
         <v>21</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="3">
         <v>19.5</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="9">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="2">
+      <c r="M43" s="9"/>
+      <c r="N43" s="1">
         <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="7">
         <f t="shared" si="4"/>
         <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="44" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="3">
         <v>36</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="3">
         <v>24</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="2">
+      <c r="M44" s="9"/>
+      <c r="N44" s="1">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="3">
         <v>6</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="3">
         <v>3.9</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="9">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="2">
+      <c r="M45" s="9"/>
+      <c r="N45" s="1">
         <f t="shared" si="3"/>
         <v>4.41</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="7">
         <f t="shared" si="4"/>
         <v>1.1307692307692307</v>
       </c>
     </row>
     <row r="46" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="3">
         <v>9</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <v>9</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="2">
+      <c r="M46" s="9"/>
+      <c r="N46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="3">
         <v>9</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="3">
         <v>8.4</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="9">
         <f t="shared" si="2"/>
         <v>0.59999999999999964</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="2">
+      <c r="M47" s="9"/>
+      <c r="N47" s="1">
         <f t="shared" si="3"/>
         <v>0.3599999999999996</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="7">
         <f t="shared" si="4"/>
         <v>4.2857142857142809E-2</v>
       </c>
     </row>
     <row r="48" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="3">
         <v>3</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="3">
         <v>3.9</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="9">
         <f t="shared" si="2"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="2">
+      <c r="M48" s="9"/>
+      <c r="N48" s="1">
         <f t="shared" si="3"/>
         <v>0.80999999999999983</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="7">
         <f t="shared" si="4"/>
         <v>0.20769230769230765</v>
       </c>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="3">
         <v>3</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="3">
         <v>4.8</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="9">
         <f t="shared" si="2"/>
         <v>-1.7999999999999998</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="2">
+      <c r="M49" s="9"/>
+      <c r="N49" s="1">
         <f t="shared" si="3"/>
         <v>3.2399999999999993</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="7">
         <f t="shared" si="4"/>
         <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="3">
         <v>3</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="3">
         <v>3.9</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="9">
         <f t="shared" si="2"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="2">
+      <c r="M50" s="9"/>
+      <c r="N50" s="1">
         <f t="shared" si="3"/>
         <v>0.80999999999999983</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O50" s="7">
         <f t="shared" si="4"/>
         <v>0.20769230769230765</v>
       </c>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="3">
         <v>9</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="3">
         <v>9</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="2">
+      <c r="M51" s="9"/>
+      <c r="N51" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="3">
         <v>9</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="3">
         <v>8.4</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="9">
         <f t="shared" si="2"/>
         <v>0.59999999999999964</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="2">
+      <c r="M52" s="9"/>
+      <c r="N52" s="1">
         <f t="shared" si="3"/>
         <v>0.3599999999999996</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="7">
         <f t="shared" si="4"/>
         <v>4.2857142857142809E-2</v>
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="3">
         <v>6</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="3">
         <v>3.9</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="9">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="2">
+      <c r="M53" s="9"/>
+      <c r="N53" s="1">
         <f t="shared" si="3"/>
         <v>4.41</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="7">
         <f t="shared" si="4"/>
         <v>1.1307692307692307</v>
       </c>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="3">
         <v>3</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="3">
         <v>4.8</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="9">
         <f t="shared" si="2"/>
         <v>-1.7999999999999998</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="2">
+      <c r="M54" s="9"/>
+      <c r="N54" s="1">
         <f t="shared" si="3"/>
         <v>3.2399999999999993</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="7">
         <f t="shared" si="4"/>
         <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="N56" s="14" t="s">
+      <c r="N56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="7">
         <f>SUM(O35:O54)</f>
         <v>27.742307692307705</v>
       </c>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I60" s="14">
+      <c r="I60" s="6">
         <f>(5-1)*(4-1)</f>
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.35">
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="6">
         <v>0.95</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="6">
         <v>21.026</v>
       </c>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="7">
         <v>27.742307692307705</v>
       </c>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J70" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="A11:F12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="P14:P20"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="L54:M54"/>
@@ -1759,51 +1859,252 @@
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="P14:P20"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="A11:F12"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C387EF-125B-476E-A078-7501DA3BFAE1}">
+  <dimension ref="B1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>